--- a/data/134/DEUSTATIS/old/Arrivals and overnight stays in accommodation establishments.xlsx
+++ b/data/134/DEUSTATIS/old/Arrivals and overnight stays in accommodation establishments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="62">
   <si>
     <t>Arrivals and overnight stays in accommodation
 establishments: Germany, months</t>
@@ -198,7 +198,7 @@
     <t>sites.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:38:06</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:36:21</t>
   </si>
 </sst>
 </file>
@@ -9665,8 +9665,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="358" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="361" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="360" max="360" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
+    <col min="359" max="359" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
+    <col min="358" max="358" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="357" max="357" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
+    <col min="356" max="356" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="349" max="354" style="7" width="12.7109375" collapsed="true"/>
     <col min="355" max="355" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="348" max="348" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
@@ -10344,6 +10348,9 @@
     <col min="355" max="355" width="11.0859375" customWidth="true"/>
     <col min="356" max="356" width="11.0859375" customWidth="true"/>
     <col min="357" max="357" width="13.5703125" customWidth="true"/>
+    <col min="358" max="358" width="13.5703125" customWidth="true"/>
+    <col min="359" max="359" width="13.5703125" customWidth="true"/>
+    <col min="360" max="360" width="13.5703125" customWidth="true"/>
     <col min="342" max="342" width="9.98828125" customWidth="true"/>
     <col min="1" max="1" width="15.609375" style="7" customWidth="true"/>
   </cols>
@@ -13717,34 +13724,34 @@
         <v>1495500.0</v>
       </c>
       <c r="MM8" t="n" s="10">
-        <v>1433226.0</v>
+        <v>1433456.0</v>
       </c>
       <c r="MN8" t="n" s="10">
-        <v>1640503.0</v>
+        <v>1640272.0</v>
       </c>
       <c r="MO8" t="n" s="10">
-        <v>2248198.0</v>
+        <v>2247394.0</v>
       </c>
       <c r="MP8" t="n" s="10">
-        <v>2022153.0</v>
+        <v>2022552.0</v>
       </c>
       <c r="MQ8" t="n" s="10">
-        <v>3919762.0</v>
+        <v>3925851.0</v>
       </c>
       <c r="MR8" t="n" s="10">
-        <v>9143900.0</v>
+        <v>9110218.0</v>
       </c>
       <c r="MS8" t="n" s="10">
-        <v>1.4744226E7</v>
-      </c>
-      <c r="MT8" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MU8" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MV8" t="s" s="10">
-        <v>51</v>
+        <v>1.4715112E7</v>
+      </c>
+      <c r="MT8" t="n" s="10">
+        <v>1.6754127E7</v>
+      </c>
+      <c r="MU8" t="n" s="10">
+        <v>1.5256912E7</v>
+      </c>
+      <c r="MV8" t="n" s="10">
+        <v>1.4960833E7</v>
       </c>
       <c r="MW8" t="s" s="10">
         <v>51</v>
@@ -14805,34 +14812,34 @@
         <v>6674608.0</v>
       </c>
       <c r="MM9" t="n" s="10">
-        <v>6385334.0</v>
+        <v>6385882.0</v>
       </c>
       <c r="MN9" t="n" s="10">
-        <v>7186085.0</v>
+        <v>7186100.0</v>
       </c>
       <c r="MO9" t="n" s="10">
-        <v>9112715.0</v>
+        <v>9110458.0</v>
       </c>
       <c r="MP9" t="n" s="10">
-        <v>8492086.0</v>
+        <v>8491677.0</v>
       </c>
       <c r="MQ9" t="n" s="10">
-        <v>1.4474226E7</v>
+        <v>1.4483655E7</v>
       </c>
       <c r="MR9" t="n" s="10">
-        <v>3.058781E7</v>
+        <v>3.0492068E7</v>
       </c>
       <c r="MS9" t="n" s="10">
-        <v>4.8058086E7</v>
-      </c>
-      <c r="MT9" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MU9" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MV9" t="s" s="10">
-        <v>51</v>
+        <v>4.7981287E7</v>
+      </c>
+      <c r="MT9" t="n" s="10">
+        <v>5.5973265E7</v>
+      </c>
+      <c r="MU9" t="n" s="10">
+        <v>4.5168411E7</v>
+      </c>
+      <c r="MV9" t="n" s="10">
+        <v>4.3246322E7</v>
       </c>
       <c r="MW9" t="s" s="10">
         <v>51</v>
@@ -14957,7 +14964,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:38:11&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:36:27&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>